--- a/Network sizing.xlsx
+++ b/Network sizing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18003"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="31" documentId="515D9777C96FF8C1C5B1D9B3BCE6B4F57F18DCF4" xr6:coauthVersionLast="16" xr6:coauthVersionMax="16" xr10:uidLastSave="{9B7B1DF5-343C-4A7C-9751-13E1D603F827}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="515D9777C96FF8C1C5B1D9B3BCE6B4F57F18DCF4" xr6:coauthVersionLast="16" xr6:coauthVersionMax="16" xr10:uidLastSave="{3052AE5A-9129-403B-A991-2EC082F1DF57}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="58">
   <si>
     <t>Aveiro</t>
   </si>
@@ -26,6 +26,12 @@
     <t>Zone</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Terminal description</t>
+  </si>
+  <si>
     <t>Terminals</t>
   </si>
   <si>
@@ -38,10 +44,151 @@
     <t>Total BandWidth</t>
   </si>
   <si>
+    <t>Total BandWidth per floor</t>
+  </si>
+  <si>
     <t>Monitoring service</t>
   </si>
   <si>
-    <t>50 Servers</t>
+    <t>Servers</t>
+  </si>
+  <si>
+    <t>10Mbs</t>
+  </si>
+  <si>
+    <t>500Mbs</t>
+  </si>
+  <si>
+    <t>872Mbs</t>
+  </si>
+  <si>
+    <t>3 verification zones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 workstations</t>
+  </si>
+  <si>
+    <t>5Mbs</t>
+  </si>
+  <si>
+    <t>300Mbs</t>
+  </si>
+  <si>
+    <t>2 meeting rooms</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>2Mbs</t>
+  </si>
+  <si>
+    <t>4Mbs</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>1 conference room</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>Video surveillance</t>
+  </si>
+  <si>
+    <t>cameras</t>
+  </si>
+  <si>
+    <t>Wi-Fi</t>
+  </si>
+  <si>
+    <t>10MBs</t>
+  </si>
+  <si>
+    <t>40Mbs</t>
+  </si>
+  <si>
+    <t>Datacenter</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Custumer support</t>
+  </si>
+  <si>
+    <t>30 business rooms</t>
+  </si>
+  <si>
+    <t>60Mbs</t>
+  </si>
+  <si>
+    <t>384Mbs</t>
+  </si>
+  <si>
+    <t>5 meeting  w/ video</t>
+  </si>
+  <si>
+    <t>20Mbs</t>
+  </si>
+  <si>
+    <t>50Mbs</t>
+  </si>
+  <si>
+    <t>20 Support Station</t>
+  </si>
+  <si>
+    <t>Recreation Room</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Cameras</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>10 Labs</t>
+  </si>
+  <si>
+    <t>160Mbs</t>
+  </si>
+  <si>
+    <t>284Mbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Development </t>
+  </si>
+  <si>
+    <t>8Mbs</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>15 Employs/Admin</t>
+  </si>
+  <si>
+    <t>30Mbs</t>
+  </si>
+  <si>
+    <t>162Mbs</t>
+  </si>
+  <si>
+    <t>3 Video Conference</t>
+  </si>
+  <si>
+    <t>6Mbs</t>
+  </si>
+  <si>
+    <t>Lisboa</t>
+  </si>
+  <si>
+    <t>Chicago</t>
   </si>
 </sst>
 </file>
@@ -65,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -73,17 +220,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,65 +580,2441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="A76" sqref="A70:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="30">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
+        <f>SUM(E3:E12)</f>
+        <v>126</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
+        <v>60</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3">
+        <f>SUM(E13:E23)</f>
+        <v>126</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="4">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="4">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="3">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="4">
+        <v>80</v>
+      </c>
+      <c r="F24" s="3">
+        <f>SUM(E24:E31)</f>
+        <v>106</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="4">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="4">
+        <v>5</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="3">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="4">
+        <v>15</v>
+      </c>
+      <c r="F32" s="3">
+        <f>SUM(E32:E37)</f>
+        <v>44</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="4">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="4">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="4">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="4">
+        <v>5</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="3">
+        <v>0</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="4">
+        <v>30</v>
+      </c>
+      <c r="F39" s="3">
+        <f>SUM(E39:E49)</f>
+        <v>126</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="4">
+        <v>30</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="4">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="4">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="4">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="4">
+        <v>20</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="4">
+        <v>20</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="4">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="3">
+        <v>1</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="4">
+        <v>30</v>
+      </c>
+      <c r="F50" s="3">
+        <f>SUM(E50:E60)</f>
+        <v>126</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="4">
+        <v>30</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="4">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="4">
+        <v>5</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="4">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="4">
+        <v>20</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="4">
+        <v>20</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="4">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="3">
+        <v>2</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="4">
+        <v>80</v>
+      </c>
+      <c r="F61" s="3">
+        <f>SUM(E61:E68)</f>
+        <v>106</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="4">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="4">
+        <v>4</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3"/>
+      <c r="G66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="4">
+        <v>5</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4">
+        <v>4</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="3">
+        <v>3</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="4">
+        <v>15</v>
+      </c>
+      <c r="F69" s="3">
+        <f>SUM(E69:E74)</f>
+        <v>44</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="4">
+        <v>15</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="4">
+        <v>3</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="4">
+        <v>3</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="4">
+        <v>3</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="4">
+        <v>5</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="3">
+        <v>0</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="4">
+        <v>30</v>
+      </c>
+      <c r="F76" s="3">
+        <f>SUM(E76:E86)</f>
+        <v>126</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="4">
+        <v>30</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="4">
+        <v>5</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="4">
+        <v>5</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="4">
+        <v>5</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="4">
+        <v>20</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="4">
+        <v>20</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" s="4">
+        <v>5</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="4">
+        <v>4</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="3">
+        <v>1</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="4">
+        <v>30</v>
+      </c>
+      <c r="F87" s="3">
+        <f>SUM(E87:E97)</f>
+        <v>126</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="4">
+        <v>30</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="4">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="4">
+        <v>5</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" s="4">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3"/>
+      <c r="G91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="4">
+        <v>20</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="4">
+        <v>20</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E95" s="4">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E96" s="4">
+        <v>5</v>
+      </c>
+      <c r="F96" s="3"/>
+      <c r="G96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="4">
+        <v>4</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="3">
+        <v>2</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="4">
+        <v>80</v>
+      </c>
+      <c r="F98" s="3">
+        <f>SUM(E98:E105)</f>
+        <v>106</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="4">
+        <v>10</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="G99" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="4">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="4">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="4">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E103" s="4">
+        <v>1</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E104" s="4">
+        <v>5</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="4">
+        <v>4</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="3">
+        <v>3</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" s="4">
+        <v>15</v>
+      </c>
+      <c r="F106" s="3">
+        <f>SUM(E106:E111)</f>
+        <v>44</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="6">
+        <v>15</v>
+      </c>
+      <c r="F107" s="5"/>
+      <c r="G107" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" s="4">
+        <v>3</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" s="4">
+        <v>3</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E110" s="4">
+        <v>3</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I110" s="3"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E111" s="4">
+        <v>5</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I111" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="111">
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="F106:F111"/>
+    <mergeCell ref="I106:I111"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="A98:A105"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="F98:F105"/>
+    <mergeCell ref="I98:I105"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="A87:A97"/>
+    <mergeCell ref="B87:B95"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="F87:F97"/>
+    <mergeCell ref="I87:I97"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A75:I75"/>
+    <mergeCell ref="A76:A86"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="F76:F86"/>
+    <mergeCell ref="I76:I86"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="F69:F74"/>
+    <mergeCell ref="I69:I74"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="F61:F68"/>
+    <mergeCell ref="I61:I68"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="F50:F60"/>
+    <mergeCell ref="I50:I60"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A50:A60"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="F32:F37"/>
+    <mergeCell ref="I32:I37"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A39:A49"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="F39:F49"/>
+    <mergeCell ref="I39:I49"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="F13:F23"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="F24:F31"/>
+    <mergeCell ref="I24:I31"/>
+    <mergeCell ref="I13:I23"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="I3:I12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Network sizing.xlsx
+++ b/Network sizing.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18108"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="397" documentId="515D9777C96FF8C1C5B1D9B3BCE6B4F57F18DCF4" xr6:coauthVersionLast="16" xr6:coauthVersionMax="16" xr10:uidLastSave="{3052AE5A-9129-403B-A991-2EC082F1DF57}"/>
+  <xr:revisionPtr revIDLastSave="444" documentId="515D9777C96FF8C1C5B1D9B3BCE6B4F57F18DCF4" xr6:coauthVersionLast="17" xr6:coauthVersionMax="17" xr10:uidLastSave="{7C9F367C-2113-4C9D-9176-9DAFBC0855B7}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="58">
   <si>
     <t>Aveiro</t>
   </si>
@@ -176,7 +176,7 @@
     <t>30Mbs</t>
   </si>
   <si>
-    <t>162Mbs</t>
+    <t>202Mbs</t>
   </si>
   <si>
     <t>3 Video Conference</t>
@@ -212,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -248,33 +248,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A76" sqref="A70:A76"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="A108" sqref="A108:A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -597,63 +673,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="30">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="30">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="4">
         <v>50</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <f>SUM(E3:E12)</f>
         <v>126</v>
       </c>
@@ -663,13 +739,13 @@
       <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -679,19 +755,19 @@
       <c r="E4" s="4">
         <v>60</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -700,38 +776,38 @@
       <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -740,116 +816,116 @@
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="4">
         <v>5</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4">
         <v>4</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <v>1</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -858,7 +934,7 @@
       <c r="E13" s="4">
         <v>30</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="6">
         <f>SUM(E13:E23)</f>
         <v>126</v>
       </c>
@@ -868,33 +944,33 @@
       <c r="H13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="4">
         <v>30</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -903,57 +979,57 @@
       <c r="E15" s="4">
         <v>5</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="4">
         <v>5</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="4">
         <v>5</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -962,38 +1038,38 @@
       <c r="E18" s="4">
         <v>20</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="4">
         <v>20</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1002,82 +1078,82 @@
       <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="4">
         <v>5</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="4">
         <v>4</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>2</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -1086,7 +1162,7 @@
       <c r="E24" s="4">
         <v>80</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="6">
         <f>SUM(E24:E31)</f>
         <v>106</v>
       </c>
@@ -1096,33 +1172,33 @@
       <c r="H24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="4">
         <v>10</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -1131,38 +1207,38 @@
       <c r="E26" s="4">
         <v>4</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="3"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1171,82 +1247,82 @@
       <c r="E28" s="4">
         <v>1</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="3"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="3"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="4">
         <v>5</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="3"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="4">
         <v>4</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="3"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="3">
+      <c r="A32" s="9">
         <v>3</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -1255,9 +1331,9 @@
       <c r="E32" s="4">
         <v>15</v>
       </c>
-      <c r="F32" s="3">
-        <f>SUM(E32:E37)</f>
-        <v>44</v>
+      <c r="F32" s="9">
+        <f>SUM(E32:E38)</f>
+        <v>48</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>21</v>
@@ -1265,33 +1341,33 @@
       <c r="H32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+    <row r="33" spans="1:12">
+      <c r="A33" s="10"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="4">
         <v>15</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="10"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -1300,1696 +1376,1752 @@
       <c r="E34" s="4">
         <v>3</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="10"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="4">
         <v>3</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="10"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E36" s="4">
         <v>3</v>
       </c>
-      <c r="F36" s="3"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
+      <c r="I36" s="10"/>
+      <c r="L36">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="10"/>
+      <c r="B37" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E37" s="4">
         <v>5</v>
       </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="2" t="s">
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="11"/>
+      <c r="B38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="4">
+        <v>4</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="3">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="6">
         <v>0</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="4">
-        <v>30</v>
-      </c>
-      <c r="F39" s="3">
-        <f>SUM(E39:E49)</f>
-        <v>126</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
       <c r="D40" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E40" s="4">
         <v>30</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="6">
+        <f>SUM(E40:E50)</f>
+        <v>126</v>
+      </c>
       <c r="G40" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
+      <c r="I40" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="4">
+        <v>30</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="4">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
       <c r="D42" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E42" s="4">
         <v>5</v>
       </c>
-      <c r="F42" s="3"/>
+      <c r="F42" s="6"/>
       <c r="G42" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E43" s="4">
         <v>5</v>
       </c>
-      <c r="F43" s="3"/>
+      <c r="F43" s="6"/>
       <c r="G43" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="4">
+        <v>5</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="4">
-        <v>20</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
       <c r="D45" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E45" s="4">
         <v>20</v>
       </c>
-      <c r="F45" s="3"/>
+      <c r="F45" s="6"/>
       <c r="G45" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="4">
+        <v>20</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
       <c r="D47" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
       </c>
-      <c r="F47" s="3"/>
+      <c r="F47" s="6"/>
       <c r="G47" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="4" t="s">
+      <c r="C49" s="6"/>
+      <c r="D49" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E49" s="4">
         <v>5</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="4" t="s">
+      <c r="F49" s="6"/>
+      <c r="G49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="4">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="4">
         <v>4</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="4" t="s">
+      <c r="F50" s="6"/>
+      <c r="G50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="3">
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="6">
         <v>1</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="4">
-        <v>30</v>
-      </c>
-      <c r="F50" s="3">
-        <f>SUM(E50:E60)</f>
-        <v>126</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
       <c r="D51" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E51" s="4">
         <v>30</v>
       </c>
-      <c r="F51" s="3"/>
+      <c r="F51" s="6">
+        <f>SUM(E51:E61)</f>
+        <v>126</v>
+      </c>
       <c r="G51" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I51" s="3"/>
+      <c r="I51" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="4">
+        <v>30</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="4">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
       <c r="D53" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E53" s="4">
         <v>5</v>
       </c>
-      <c r="F53" s="3"/>
+      <c r="F53" s="6"/>
       <c r="G53" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I53" s="3"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
       <c r="D54" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E54" s="4">
         <v>5</v>
       </c>
-      <c r="F54" s="3"/>
+      <c r="F54" s="6"/>
       <c r="G54" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="4">
+        <v>5</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3" t="s">
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" s="4">
-        <v>20</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
       <c r="D56" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E56" s="4">
         <v>20</v>
       </c>
-      <c r="F56" s="3"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I56" s="3"/>
+      <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="4">
+        <v>20</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="4">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
       <c r="D58" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E58" s="4">
         <v>1</v>
       </c>
-      <c r="F58" s="3"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I58" s="3"/>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3" t="s">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="4" t="s">
+      <c r="C60" s="6"/>
+      <c r="D60" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="4">
         <v>5</v>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="4" t="s">
+      <c r="F60" s="6"/>
+      <c r="G60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3" t="s">
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="4">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="4">
         <v>4</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="4" t="s">
+      <c r="F61" s="6"/>
+      <c r="G61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="3">
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="6">
         <v>2</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C62" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="4">
+      <c r="D62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="4">
         <v>80</v>
       </c>
-      <c r="F61" s="3">
-        <f>SUM(E61:E68)</f>
+      <c r="F62" s="6">
+        <f>SUM(E62:E69)</f>
         <v>106</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H61" s="4" t="s">
+      <c r="G62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I62" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="4">
+    <row r="63" spans="1:9">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="4">
         <v>10</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="4" t="s">
+      <c r="F63" s="6"/>
+      <c r="G63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3" t="s">
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="4">
+      <c r="D64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="4">
         <v>4</v>
       </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H63" s="4" t="s">
+      <c r="F64" s="6"/>
+      <c r="G64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="4">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="3"/>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E65" s="4">
         <v>1</v>
       </c>
-      <c r="F65" s="3"/>
+      <c r="F65" s="6"/>
       <c r="G65" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="3"/>
+      <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="D66" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
       </c>
-      <c r="F66" s="3"/>
+      <c r="F66" s="6"/>
       <c r="G66" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I66" s="3"/>
+      <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3" t="s">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="4" t="s">
+      <c r="C68" s="6"/>
+      <c r="D68" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E68" s="4">
         <v>5</v>
       </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="4" t="s">
+      <c r="F68" s="6"/>
+      <c r="G68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3" t="s">
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="4">
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="4">
         <v>4</v>
       </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="4" t="s">
+      <c r="F69" s="6"/>
+      <c r="G69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="3">
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="9">
         <v>3</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C70" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E69" s="4">
-        <v>15</v>
-      </c>
-      <c r="F69" s="3">
-        <f>SUM(E69:E74)</f>
-        <v>44</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
       <c r="D70" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E70" s="4">
         <v>15</v>
       </c>
-      <c r="F70" s="3"/>
+      <c r="F70" s="9">
+        <f>SUM(E70:E76)</f>
+        <v>48</v>
+      </c>
       <c r="G70" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I70" s="3"/>
+      <c r="I70" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3" t="s">
+      <c r="A71" s="10"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="4">
+        <v>15</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I71" s="10"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="10"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E71" s="4">
-        <v>3</v>
-      </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
       <c r="D72" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E72" s="4">
         <v>3</v>
       </c>
-      <c r="F72" s="3"/>
+      <c r="F72" s="10"/>
       <c r="G72" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I72" s="3"/>
+      <c r="I72" s="10"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
       <c r="D73" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E73" s="4">
         <v>3</v>
       </c>
-      <c r="F73" s="3"/>
+      <c r="F73" s="10"/>
       <c r="G73" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I73" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="I73" s="10"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C74" s="3"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
       <c r="D74" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E74" s="4">
+        <v>3</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I74" s="10"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="10"/>
+      <c r="B75" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="4">
         <v>5</v>
       </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="4" t="s">
+      <c r="F75" s="10"/>
+      <c r="G75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="2" t="s">
+      <c r="I75" s="10"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="11"/>
+      <c r="B76" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="4">
+        <v>4</v>
+      </c>
+      <c r="F76" s="11"/>
+      <c r="G76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I76" s="11"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="3">
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="6">
         <v>0</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B78" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C78" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E76" s="4">
+      <c r="D78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="4">
         <v>30</v>
       </c>
-      <c r="F76" s="3">
-        <f>SUM(E76:E86)</f>
+      <c r="F78" s="6">
+        <f>SUM(E78:E88)</f>
         <v>126</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H76" s="4" t="s">
+      <c r="G78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I78" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" s="4">
+    <row r="79" spans="1:9">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="4">
         <v>30</v>
       </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" s="4" t="s">
+      <c r="F79" s="6"/>
+      <c r="G79" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3" t="s">
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E78" s="4">
-        <v>5</v>
-      </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" s="4">
-        <v>5</v>
-      </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
       <c r="D80" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E80" s="4">
         <v>5</v>
       </c>
-      <c r="F80" s="3"/>
+      <c r="F80" s="6"/>
       <c r="G80" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H80" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="4">
+        <v>5</v>
+      </c>
+      <c r="F81" s="6"/>
+      <c r="G81" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="4">
+        <v>5</v>
+      </c>
+      <c r="F82" s="6"/>
+      <c r="G82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3" t="s">
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E81" s="4">
-        <v>20</v>
-      </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H81" s="4" t="s">
+      <c r="D83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="4">
+        <v>20</v>
+      </c>
+      <c r="F83" s="6"/>
+      <c r="G83" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="4">
-        <v>20</v>
-      </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H82" s="4" t="s">
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="4">
+        <v>20</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3" t="s">
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="4">
+      <c r="D85" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="4">
         <v>1</v>
       </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="4" t="s">
+      <c r="F85" s="6"/>
+      <c r="G85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E86" s="4">
         <v>1</v>
       </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3" t="s">
+      <c r="F86" s="6"/>
+      <c r="G86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="4" t="s">
+      <c r="C87" s="6"/>
+      <c r="D87" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E87" s="4">
         <v>5</v>
       </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="4" t="s">
+      <c r="F87" s="6"/>
+      <c r="G87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3" t="s">
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="4">
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="4">
         <v>4</v>
       </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" s="4" t="s">
+      <c r="F88" s="6"/>
+      <c r="G88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="3">
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="6">
         <v>1</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B89" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C89" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E87" s="4">
+      <c r="D89" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="4">
         <v>30</v>
       </c>
-      <c r="F87" s="3">
-        <f>SUM(E87:E97)</f>
+      <c r="F89" s="6">
+        <f>SUM(E89:E99)</f>
         <v>126</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H87" s="4" t="s">
+      <c r="G89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I87" s="3" t="s">
+      <c r="I89" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E88" s="4">
+    <row r="90" spans="1:9">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="4">
         <v>30</v>
       </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H88" s="4" t="s">
+      <c r="F90" s="6"/>
+      <c r="G90" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3" t="s">
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E89" s="4">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3"/>
-      <c r="G89" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E90" s="4">
-        <v>5</v>
-      </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
       <c r="D91" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E91" s="4">
         <v>5</v>
       </c>
-      <c r="F91" s="3"/>
+      <c r="F91" s="6"/>
       <c r="G91" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H91" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="4">
+        <v>5</v>
+      </c>
+      <c r="F92" s="6"/>
+      <c r="G92" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="4">
+        <v>5</v>
+      </c>
+      <c r="F93" s="6"/>
+      <c r="G93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3" t="s">
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E92" s="4">
-        <v>20</v>
-      </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H92" s="4" t="s">
+      <c r="D94" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="4">
+        <v>20</v>
+      </c>
+      <c r="F94" s="6"/>
+      <c r="G94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E93" s="4">
-        <v>20</v>
-      </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H93" s="4" t="s">
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="4">
+        <v>20</v>
+      </c>
+      <c r="F95" s="6"/>
+      <c r="G95" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3" t="s">
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E94" s="4">
+      <c r="D96" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="4">
         <v>1</v>
       </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="4" t="s">
+      <c r="F96" s="6"/>
+      <c r="G96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E97" s="4">
         <v>1</v>
       </c>
-      <c r="F95" s="3"/>
-      <c r="G95" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3" t="s">
+      <c r="F97" s="6"/>
+      <c r="G97" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="4" t="s">
+      <c r="C98" s="6"/>
+      <c r="D98" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E98" s="4">
         <v>5</v>
       </c>
-      <c r="F96" s="3"/>
-      <c r="G96" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="4" t="s">
+      <c r="F98" s="6"/>
+      <c r="G98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3" t="s">
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="4">
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="4">
         <v>4</v>
       </c>
-      <c r="F97" s="3"/>
-      <c r="G97" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" s="4" t="s">
+      <c r="F99" s="6"/>
+      <c r="G99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="3">
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="6">
         <v>2</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B100" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C100" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E98" s="4">
+      <c r="D100" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="4">
         <v>80</v>
       </c>
-      <c r="F98" s="3">
-        <f>SUM(E98:E105)</f>
+      <c r="F100" s="6">
+        <f>SUM(E100:E107)</f>
         <v>106</v>
       </c>
-      <c r="G98" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H98" s="4" t="s">
+      <c r="G100" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="I100" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E99" s="4">
+    <row r="101" spans="1:9">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="4">
         <v>10</v>
       </c>
-      <c r="F99" s="3"/>
-      <c r="G99" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H99" s="4" t="s">
+      <c r="F101" s="6"/>
+      <c r="G101" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I99" s="3"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3" t="s">
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E100" s="4">
+      <c r="D102" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102" s="4">
         <v>4</v>
       </c>
-      <c r="F100" s="3"/>
-      <c r="G100" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H100" s="4" t="s">
+      <c r="F102" s="6"/>
+      <c r="G102" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H102" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I100" s="3"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E101" s="4">
-        <v>1</v>
-      </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I101" s="3"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E102" s="4">
-        <v>1</v>
-      </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I102" s="3"/>
+      <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
       <c r="D103" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E103" s="4">
         <v>1</v>
       </c>
-      <c r="F103" s="3"/>
+      <c r="F103" s="6"/>
       <c r="G103" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I103" s="3"/>
+      <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3" t="s">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" s="4">
+        <v>1</v>
+      </c>
+      <c r="F104" s="6"/>
+      <c r="G104" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E105" s="4">
+        <v>1</v>
+      </c>
+      <c r="F105" s="6"/>
+      <c r="G105" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="4" t="s">
+      <c r="C106" s="6"/>
+      <c r="D106" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E106" s="4">
         <v>5</v>
       </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" s="4" t="s">
+      <c r="F106" s="6"/>
+      <c r="G106" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I104" s="3"/>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3" t="s">
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="4">
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="5">
         <v>4</v>
       </c>
-      <c r="F105" s="3"/>
-      <c r="G105" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H105" s="4" t="s">
+      <c r="F107" s="9"/>
+      <c r="G107" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I105" s="3"/>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="3">
+      <c r="I107" s="9"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="6">
         <v>3</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B108" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C108" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E106" s="4">
+      <c r="D108" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" s="4">
         <v>15</v>
       </c>
-      <c r="F106" s="3">
-        <f>SUM(E106:E111)</f>
-        <v>44</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H106" s="4" t="s">
+      <c r="F108" s="6">
+        <f>SUM(E108:E114)</f>
+        <v>48</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I106" s="3" t="s">
+      <c r="I108" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E107" s="6">
+    <row r="109" spans="1:9">
+      <c r="A109" s="6"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" s="4">
         <v>15</v>
       </c>
-      <c r="F107" s="5"/>
-      <c r="G107" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H107" s="6" t="s">
+      <c r="F109" s="6"/>
+      <c r="G109" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H109" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I107" s="5"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3" t="s">
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="6"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E108" s="4">
-        <v>3</v>
-      </c>
-      <c r="F108" s="3"/>
-      <c r="G108" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I108" s="3"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E109" s="4">
-        <v>3</v>
-      </c>
-      <c r="F109" s="3"/>
-      <c r="G109" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I109" s="3"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
       <c r="D110" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E110" s="4">
         <v>3</v>
       </c>
-      <c r="F110" s="3"/>
+      <c r="F110" s="6"/>
       <c r="G110" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H110" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="6"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" s="4">
+        <v>3</v>
+      </c>
+      <c r="F111" s="6"/>
+      <c r="G111" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="6"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E112" s="4">
+        <v>3</v>
+      </c>
+      <c r="F112" s="6"/>
+      <c r="G112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I110" s="3"/>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3" t="s">
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="6"/>
+      <c r="B113" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="4" t="s">
+      <c r="C113" s="6"/>
+      <c r="D113" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E113" s="4">
         <v>5</v>
       </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" s="4" t="s">
+      <c r="F113" s="6"/>
+      <c r="G113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I111" s="3"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="6"/>
+      <c r="B114" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="4">
+        <v>4</v>
+      </c>
+      <c r="F114" s="6"/>
+      <c r="G114" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I114" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="111">
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="F106:F111"/>
-    <mergeCell ref="I106:I111"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="A98:A105"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="F98:F105"/>
-    <mergeCell ref="I98:I105"/>
+  <mergeCells count="115">
+    <mergeCell ref="I100:I107"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="I108:I114"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="F108:F114"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="A100:A107"/>
+    <mergeCell ref="B100:B105"/>
     <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="A87:A97"/>
-    <mergeCell ref="B87:B95"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="F87:F97"/>
-    <mergeCell ref="I87:I97"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="F100:F107"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="B89:B97"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="F89:F99"/>
+    <mergeCell ref="I89:I99"/>
+    <mergeCell ref="C91:C93"/>
     <mergeCell ref="C94:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="A75:I75"/>
-    <mergeCell ref="A76:A86"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="F76:F86"/>
-    <mergeCell ref="I76:I86"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="A78:A88"/>
+    <mergeCell ref="B78:B86"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="F78:F88"/>
+    <mergeCell ref="I78:I88"/>
+    <mergeCell ref="C80:C82"/>
     <mergeCell ref="C83:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="F69:F74"/>
-    <mergeCell ref="I69:I74"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="F61:F68"/>
-    <mergeCell ref="I61:I68"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="F50:F60"/>
-    <mergeCell ref="I50:I60"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="A50:A60"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="F32:F37"/>
-    <mergeCell ref="I32:I37"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="F62:F69"/>
+    <mergeCell ref="I62:I69"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="F70:F76"/>
+    <mergeCell ref="I70:I76"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A51:A61"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="C51:C52"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C34:C36"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A39:A49"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="F39:F49"/>
-    <mergeCell ref="I39:I49"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A40:A50"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="F40:F50"/>
+    <mergeCell ref="I40:I50"/>
+    <mergeCell ref="F51:F61"/>
+    <mergeCell ref="I51:I61"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:D50"/>
     <mergeCell ref="F13:F23"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A32:A37"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="A24:A31"/>
@@ -2999,6 +3131,15 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="B24:B29"/>
     <mergeCell ref="F24:F31"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="I3:I12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="F32:F38"/>
+    <mergeCell ref="I32:I38"/>
     <mergeCell ref="I24:I31"/>
     <mergeCell ref="I13:I23"/>
     <mergeCell ref="G12:H12"/>
@@ -3009,12 +3150,11 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A3:A12"/>
     <mergeCell ref="F3:F12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="I3:I12"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A13:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
